--- a/MTP_TEST_SHEET/MTPAPI_FNL.xlsx
+++ b/MTP_TEST_SHEET/MTPAPI_FNL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lollal\Documents\Katalon\Local_agent\active-testing\MTP_TEST_SHEET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lollal\Documents\Katalon\V2_Visual_test\active-testing-v2\MTP_TEST_SHEET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B179B7F8-EA1D-4D46-9ED9-2A1E77CEE7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A438BF5-5861-4260-9327-9CC54E3B12B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4CA04EDA-5F88-F44F-AED6-BB3F5A70B725}"/>
   </bookViews>
@@ -7447,12 +7447,12 @@
   <dimension ref="A1:C1169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="1" max="1" width="57.08203125" customWidth="1"/>
     <col min="2" max="2" width="45.6640625" customWidth="1"/>
     <col min="3" max="3" width="98.5" customWidth="1"/>
   </cols>
